--- a/00_Data/01_bike_sales/02_wrangled_data/sales_by_year_and_Category_1.xlsx
+++ b/00_Data/01_bike_sales/02_wrangled_data/sales_by_year_and_Category_1.xlsx
@@ -393,7 +393,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.599.048 €</t>
+          <t>1.599.048 â‚¬</t>
         </is>
       </c>
     </row>
@@ -411,7 +411,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>663.025 €</t>
+          <t>663.025 â‚¬</t>
         </is>
       </c>
     </row>
@@ -429,7 +429,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>502.512 €</t>
+          <t>502.512 â‚¬</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.254.289 €</t>
+          <t>3.254.289 â‚¬</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.911.408 €</t>
+          <t>3.911.408 â‚¬</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.916.469 €</t>
+          <t>1.916.469 â‚¬</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>768.794 €</t>
+          <t>768.794 â‚¬</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>512.346 €</t>
+          <t>512.346 â‚¬</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.288.733 €</t>
+          <t>3.288.733 â‚¬</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.244.165 €</t>
+          <t>4.244.165 â‚¬</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.617.352 €</t>
+          <t>2.617.352 â‚¬</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.006.839 €</t>
+          <t>1.006.839 â‚¬</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>784.491 €</t>
+          <t>784.491 â‚¬</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.482.867 €</t>
+          <t>4.482.867 â‚¬</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.618.742 €</t>
+          <t>5.618.742 â‚¬</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.151.550 €</t>
+          <t>2.151.550 â‚¬</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>792.234 €</t>
+          <t>792.234 â‚¬</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>576.805 €</t>
+          <t>576.805 â‚¬</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.090.277 €</t>
+          <t>4.090.277 â‚¬</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.630.987 €</t>
+          <t>4.630.987 â‚¬</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.667.921 €</t>
+          <t>2.667.921 â‚¬</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.169.038 €</t>
+          <t>1.169.038 â‚¬</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>617.064 €</t>
+          <t>617.064 â‚¬</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.674.327 €</t>
+          <t>4.674.327 â‚¬</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5.889.525 €</t>
+          <t>5.889.525 â‚¬</t>
         </is>
       </c>
     </row>

--- a/00_Data/01_bike_sales/02_wrangled_data/sales_by_year_and_Category_1.xlsx
+++ b/00_Data/01_bike_sales/02_wrangled_data/sales_by_year_and_Category_1.xlsx
@@ -393,7 +393,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.599.048 â‚¬</t>
+          <t>1.599.048 €</t>
         </is>
       </c>
     </row>
@@ -411,7 +411,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>663.025 â‚¬</t>
+          <t>663.025 €</t>
         </is>
       </c>
     </row>
@@ -429,7 +429,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>502.512 â‚¬</t>
+          <t>502.512 €</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.254.289 â‚¬</t>
+          <t>3.254.289 €</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.911.408 â‚¬</t>
+          <t>3.911.408 €</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.916.469 â‚¬</t>
+          <t>1.916.469 €</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>768.794 â‚¬</t>
+          <t>768.794 €</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>512.346 â‚¬</t>
+          <t>512.346 €</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.288.733 â‚¬</t>
+          <t>3.288.733 €</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.244.165 â‚¬</t>
+          <t>4.244.165 €</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.617.352 â‚¬</t>
+          <t>2.617.352 €</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.006.839 â‚¬</t>
+          <t>1.006.839 €</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>784.491 â‚¬</t>
+          <t>784.491 €</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.482.867 â‚¬</t>
+          <t>4.482.867 €</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.618.742 â‚¬</t>
+          <t>5.618.742 €</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.151.550 â‚¬</t>
+          <t>2.151.550 €</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>792.234 â‚¬</t>
+          <t>792.234 €</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>576.805 â‚¬</t>
+          <t>576.805 €</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.090.277 â‚¬</t>
+          <t>4.090.277 €</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.630.987 â‚¬</t>
+          <t>4.630.987 €</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.667.921 â‚¬</t>
+          <t>2.667.921 €</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.169.038 â‚¬</t>
+          <t>1.169.038 €</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>617.064 â‚¬</t>
+          <t>617.064 €</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.674.327 â‚¬</t>
+          <t>4.674.327 €</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5.889.525 â‚¬</t>
+          <t>5.889.525 €</t>
         </is>
       </c>
     </row>
